--- a/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_24.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_24.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04228591918945312</v>
+        <v>0.0006461143493652344</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006237030029296875</v>
+        <v>0.0005619525909423828</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00118708610534668</v>
+        <v>0.009025096893310547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 0), (4, 1), (4, 3), (3, 4), (3, 2), (3, 0), (3, 1), (3, 3), (2, 4), (2, 2), (2, 0), (2, 1), (2, 3), (1, 4), (1, 2), (1, 0), (1, 1), (1, 3), (0, 4), (0, 3), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[4, 2], [4, 0], [4, 1], [4, 3], [3, 4], [3, 2], [3, 0], [3, 1], [3, 3], [2, 4], [2, 2], [2, 0], [2, 1], [2, 3], [1, 4], [1, 2], [1, 0], [1, 1], [1, 3], [0, 4], [0, 3], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -513,11 +513,6 @@
           <t>[23, 22]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[4, 3]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -532,11 +527,6 @@
           <t>[21, 20]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[2, 1]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -544,11 +534,6 @@
           <t>[22, 23]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -556,11 +541,6 @@
           <t>[20, 19]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[1, 0]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -582,11 +562,6 @@
           <t>[20, 21]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[1, 2]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -601,11 +576,6 @@
           <t>[19, 20]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[0, 1]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -792,158 +762,210 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[5, 6]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[4, 5]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.793978583873954</v>
+          <t>[2, 1]</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>182.8</v>
+          <t>[3, 4]</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
+          <t>[1, 0]</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>40</v>
+          <t>[2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
+          <t>[1, 2]</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.050689697265625</v>
+          <t>[0, 1]</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7939633396314889</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>211.6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.01578974723815918</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
